--- a/data/allocations.xlsx
+++ b/data/allocations.xlsx
@@ -914,7 +914,7 @@
         <v>2026-01-01</v>
       </c>
       <c r="G22" t="str">
-        <v>2026-02-28</v>
+        <v>2026-01-12</v>
       </c>
     </row>
     <row r="23">
